--- a/tables/1986/Table 31.xlsx
+++ b/tables/1986/Table 31.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Treatment combinations</t>
   </si>
   <si>
-    <t xml:space="preserve">Yield</t>
+    <t xml:space="preserve">Yield(t/ha)</t>
   </si>
   <si>
     <t xml:space="preserve">Year 1</t>
@@ -145,9 +145,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -178,10 +182,10 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.43"/>
   </cols>
@@ -197,13 +201,13 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -217,7 +221,7 @@
       <c r="C3" s="0" t="n">
         <v>15.8</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>17</v>
       </c>
     </row>
@@ -239,7 +243,7 @@
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -287,18 +291,18 @@
       <c r="C8" s="0" t="n">
         <v>12.5</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -337,7 +341,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
